--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H2">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I2">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J2">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>2587.227211782851</v>
+        <v>832.7476227400276</v>
       </c>
       <c r="R2">
-        <v>10348.9088471314</v>
+        <v>3330.99049096011</v>
       </c>
       <c r="S2">
-        <v>0.111414435588582</v>
+        <v>0.05196223992488842</v>
       </c>
       <c r="T2">
-        <v>0.07347547130863087</v>
+        <v>0.03647939309094246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H3">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I3">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J3">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>3814.399669094129</v>
+        <v>1356.434595556997</v>
       </c>
       <c r="R3">
-        <v>22886.39801456478</v>
+        <v>8138.607573341983</v>
       </c>
       <c r="S3">
-        <v>0.1642604809913639</v>
+        <v>0.08463954500985181</v>
       </c>
       <c r="T3">
-        <v>0.1624894861397081</v>
+        <v>0.08913008478606876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H4">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I4">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J4">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>1803.740672293223</v>
+        <v>743.038151934232</v>
       </c>
       <c r="R4">
-        <v>10822.44403375934</v>
+        <v>4458.228911605393</v>
       </c>
       <c r="S4">
-        <v>0.07767495179259344</v>
+        <v>0.04636449948318346</v>
       </c>
       <c r="T4">
-        <v>0.07683748961729076</v>
+        <v>0.04882436182187386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H5">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I5">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J5">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>606.3882033217818</v>
+        <v>318.1936194331703</v>
       </c>
       <c r="R5">
-        <v>2425.552813287127</v>
+        <v>1272.774477732681</v>
       </c>
       <c r="S5">
-        <v>0.02611305227193979</v>
+        <v>0.01985481884793892</v>
       </c>
       <c r="T5">
-        <v>0.01722100742916944</v>
+        <v>0.01393880907655989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H6">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I6">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J6">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>1398.157208331068</v>
+        <v>505.7168582535411</v>
       </c>
       <c r="R6">
-        <v>8388.943249986407</v>
+        <v>3034.301149521247</v>
       </c>
       <c r="S6">
-        <v>0.06020920602600238</v>
+        <v>0.03155599608458442</v>
       </c>
       <c r="T6">
-        <v>0.05956005296587018</v>
+        <v>0.03323019524975571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H7">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I7">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J7">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>1327.430246170965</v>
+        <v>559.9878462274306</v>
       </c>
       <c r="R7">
-        <v>7964.581477025788</v>
+        <v>3359.927077364584</v>
       </c>
       <c r="S7">
-        <v>0.05716347253414845</v>
+        <v>0.03494242676424348</v>
       </c>
       <c r="T7">
-        <v>0.05654715742932379</v>
+        <v>0.03679629255763969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J8">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>272.902393906868</v>
+        <v>247.00941933223</v>
       </c>
       <c r="R8">
-        <v>1637.414363441208</v>
+        <v>1482.05651599338</v>
       </c>
       <c r="S8">
-        <v>0.01175206647851944</v>
+        <v>0.01541302834202827</v>
       </c>
       <c r="T8">
-        <v>0.01162536010883051</v>
+        <v>0.01623076450582476</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J9">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
         <v>402.3453356831506</v>
@@ -1013,10 +1013,10 @@
         <v>3621.108021148356</v>
       </c>
       <c r="S9">
-        <v>0.01732630140974227</v>
+        <v>0.02510576349246985</v>
       </c>
       <c r="T9">
-        <v>0.02570924359693134</v>
+        <v>0.0396566196411329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J10">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>190.2597287220087</v>
+        <v>220.3998155492373</v>
       </c>
       <c r="R10">
-        <v>1712.337558498078</v>
+        <v>1983.598339943136</v>
       </c>
       <c r="S10">
-        <v>0.008193203980794581</v>
+        <v>0.0137526277857006</v>
       </c>
       <c r="T10">
-        <v>0.01215730189613091</v>
+        <v>0.02172340742902262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J11">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>63.962218536409</v>
+        <v>94.382522417533</v>
       </c>
       <c r="R11">
-        <v>383.773311218454</v>
+        <v>566.295134505198</v>
       </c>
       <c r="S11">
-        <v>0.002754421584920183</v>
+        <v>0.005889332062503015</v>
       </c>
       <c r="T11">
-        <v>0.002724724445250663</v>
+        <v>0.006201789789903858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J12">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>147.4785235227793</v>
+        <v>150.0056248647187</v>
       </c>
       <c r="R12">
-        <v>1327.306711705014</v>
+        <v>1350.050623782468</v>
       </c>
       <c r="S12">
-        <v>0.006350905859715797</v>
+        <v>0.009360132717829079</v>
       </c>
       <c r="T12">
-        <v>0.00942364916477814</v>
+        <v>0.01478509996689825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J13">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>140.0181979667753</v>
+        <v>166.103473552546</v>
       </c>
       <c r="R13">
-        <v>1260.163781700978</v>
+        <v>1494.931261972914</v>
       </c>
       <c r="S13">
-        <v>0.00602963992785491</v>
+        <v>0.01036461505191143</v>
       </c>
       <c r="T13">
-        <v>0.008946945920024329</v>
+        <v>0.01637176248249508</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H14">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I14">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J14">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>10.66065197114867</v>
+        <v>2.246861283748334</v>
       </c>
       <c r="R14">
-        <v>63.963911826892</v>
+        <v>13.48116770249</v>
       </c>
       <c r="S14">
-        <v>0.0004590824172544772</v>
+        <v>0.0001402008746898844</v>
       </c>
       <c r="T14">
-        <v>0.0004541327629460493</v>
+        <v>0.0001476392134047493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H15">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I15">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J15">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>15.71720765995489</v>
+        <v>3.659836778237556</v>
       </c>
       <c r="R15">
-        <v>141.454868939594</v>
+        <v>32.938531004138</v>
       </c>
       <c r="S15">
-        <v>0.0006768341846774704</v>
+        <v>0.0002283684895202397</v>
       </c>
       <c r="T15">
-        <v>0.001004305218817173</v>
+        <v>0.0003607268239279207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H16">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I16">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J16">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>7.432301061905222</v>
+        <v>2.004813475703111</v>
       </c>
       <c r="R16">
-        <v>66.89070955714699</v>
+        <v>18.043321281328</v>
       </c>
       <c r="S16">
-        <v>0.0003200591058123462</v>
+        <v>0.0001250974436725068</v>
       </c>
       <c r="T16">
-        <v>0.0004749125229992192</v>
+        <v>0.0001976017078025378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H17">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I17">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J17">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>2.498618430411834</v>
+        <v>0.8585277276298335</v>
       </c>
       <c r="R17">
-        <v>14.991710582471</v>
+        <v>5.151166365779001</v>
       </c>
       <c r="S17">
-        <v>0.0001075986526841339</v>
+        <v>5.357088095728808E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001064385643975379</v>
+        <v>5.64130769043207E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H18">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I18">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J18">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>5.761097181990111</v>
+        <v>1.364489790568223</v>
       </c>
       <c r="R18">
-        <v>51.84987463791101</v>
+        <v>12.280408115114</v>
       </c>
       <c r="S18">
-        <v>0.00024809162024084</v>
+        <v>8.514217745740877E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003681251842671259</v>
+        <v>0.0001344890764966787</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H19">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I19">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J19">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>5.469667219777444</v>
+        <v>1.510919967466334</v>
       </c>
       <c r="R19">
-        <v>49.227004977997</v>
+        <v>13.598279707197</v>
       </c>
       <c r="S19">
-        <v>0.0002355416962891854</v>
+        <v>9.427920742476886E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003495032611938824</v>
+        <v>0.0001489217673078508</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H20">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I20">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J20">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N20">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O20">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P20">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q20">
-        <v>1436.488350636394</v>
+        <v>1997.94555295797</v>
       </c>
       <c r="R20">
-        <v>5745.953402545577</v>
+        <v>7991.782211831881</v>
       </c>
       <c r="S20">
-        <v>0.06185986993598448</v>
+        <v>0.1246688952867493</v>
       </c>
       <c r="T20">
-        <v>0.04079528002476248</v>
+        <v>0.08752212460341964</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H21">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I21">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J21">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P21">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q21">
-        <v>2117.842864504055</v>
+        <v>3254.386315933676</v>
       </c>
       <c r="R21">
-        <v>12707.05718702433</v>
+        <v>19526.31789560206</v>
       </c>
       <c r="S21">
-        <v>0.0912012158574302</v>
+        <v>0.2030689706449174</v>
       </c>
       <c r="T21">
-        <v>0.09021791857999957</v>
+        <v>0.2138427678090006</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H22">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I22">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J22">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N22">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O22">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P22">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q22">
-        <v>1001.478513954244</v>
+        <v>1782.712710065056</v>
       </c>
       <c r="R22">
-        <v>6008.871083725466</v>
+        <v>10696.27626039034</v>
       </c>
       <c r="S22">
-        <v>0.04312692865866044</v>
+        <v>0.1112386790763226</v>
       </c>
       <c r="T22">
-        <v>0.04266195030135106</v>
+        <v>0.1171404323641967</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H23">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I23">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J23">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N23">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O23">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P23">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q23">
-        <v>336.6807468891845</v>
+        <v>763.4168018808871</v>
       </c>
       <c r="R23">
-        <v>1346.722987556738</v>
+        <v>3053.667207523548</v>
       </c>
       <c r="S23">
-        <v>0.01449857021345719</v>
+        <v>0.0476360975868072</v>
       </c>
       <c r="T23">
-        <v>0.009561501380923541</v>
+        <v>0.03344228292890257</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H24">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I24">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J24">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N24">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O24">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P24">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q24">
-        <v>776.2891998735098</v>
+        <v>1213.326487416428</v>
       </c>
       <c r="R24">
-        <v>4657.735199241059</v>
+        <v>7279.958924498569</v>
       </c>
       <c r="S24">
-        <v>0.03342954289577803</v>
+        <v>0.07570980729900806</v>
       </c>
       <c r="T24">
-        <v>0.03306911811189625</v>
+        <v>0.07972658103150324</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H25">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I25">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J25">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N25">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O25">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P25">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q25">
-        <v>737.0199556586276</v>
+        <v>1343.534579419494</v>
       </c>
       <c r="R25">
-        <v>4422.119733951766</v>
+        <v>8061.207476516965</v>
       </c>
       <c r="S25">
-        <v>0.03173848126026888</v>
+        <v>0.08383460277373196</v>
       </c>
       <c r="T25">
-        <v>0.0313962888682092</v>
+        <v>0.08828243644692776</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H26">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I26">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J26">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N26">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O26">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P26">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q26">
-        <v>896.6565612016027</v>
+        <v>5.72116833314</v>
       </c>
       <c r="R26">
-        <v>5379.939367209617</v>
+        <v>34.32700999884</v>
       </c>
       <c r="S26">
-        <v>0.03861295375531948</v>
+        <v>0.0003569925790951226</v>
       </c>
       <c r="T26">
-        <v>0.03819664338111883</v>
+        <v>0.0003759327727841876</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H27">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I27">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J27">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P27">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q27">
-        <v>1321.958301444123</v>
+        <v>9.319018682445332</v>
       </c>
       <c r="R27">
-        <v>11897.62471299711</v>
+        <v>83.871168142008</v>
       </c>
       <c r="S27">
-        <v>0.05692783276098264</v>
+        <v>0.0005814932056466694</v>
       </c>
       <c r="T27">
-        <v>0.08447108735361897</v>
+        <v>0.0009185163752199613</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H28">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I28">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J28">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N28">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O28">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P28">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q28">
-        <v>625.123259817373</v>
+        <v>5.104843567338667</v>
       </c>
       <c r="R28">
-        <v>5626.109338356356</v>
+        <v>45.943592106048</v>
       </c>
       <c r="S28">
-        <v>0.02691984486273744</v>
+        <v>0.0003185348105255239</v>
       </c>
       <c r="T28">
-        <v>0.03994440779949541</v>
+        <v>0.0005031519486455707</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H29">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I29">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J29">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N29">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O29">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P29">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q29">
-        <v>210.1562470692514</v>
+        <v>2.186063591894</v>
       </c>
       <c r="R29">
-        <v>1260.937482415508</v>
+        <v>13.116381551364</v>
       </c>
       <c r="S29">
-        <v>0.009050012904162524</v>
+        <v>0.0001364071871851161</v>
       </c>
       <c r="T29">
-        <v>0.008952439061909298</v>
+        <v>0.0001436442523151961</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H30">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I30">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J30">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N30">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O30">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P30">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q30">
-        <v>484.5600064547365</v>
+        <v>3.474391515469333</v>
       </c>
       <c r="R30">
-        <v>4361.040058092629</v>
+        <v>31.269523639224</v>
       </c>
       <c r="S30">
-        <v>0.02086673307318527</v>
+        <v>0.0002167969749655778</v>
       </c>
       <c r="T30">
-        <v>0.03096263368412933</v>
+        <v>0.0003424486643529809</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H31">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I31">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J31">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N31">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O31">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P31">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q31">
-        <v>460.0481296524617</v>
+        <v>3.847245726428</v>
       </c>
       <c r="R31">
-        <v>4140.433166872156</v>
+        <v>34.625211537852</v>
       </c>
       <c r="S31">
-        <v>0.01981117177315534</v>
+        <v>0.0002400625351878825</v>
       </c>
       <c r="T31">
-        <v>0.02939636273268994</v>
+        <v>0.0003791985314801265</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H32">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I32">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J32">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N32">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O32">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P32">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q32">
-        <v>3.475925689705333</v>
+        <v>6.37262507032</v>
       </c>
       <c r="R32">
-        <v>20.855554138232</v>
+        <v>38.23575042192</v>
       </c>
       <c r="S32">
-        <v>0.0001496846883422762</v>
+        <v>0.0003976425315580911</v>
       </c>
       <c r="T32">
-        <v>0.0001480708442160082</v>
+        <v>0.0004187394030555616</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H33">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I33">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J33">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P33">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q33">
-        <v>5.124625212747111</v>
+        <v>10.38015465172267</v>
       </c>
       <c r="R33">
-        <v>46.121626914724</v>
+        <v>93.42139186550401</v>
       </c>
       <c r="S33">
-        <v>0.0002206830629644589</v>
+        <v>0.0006477065460667734</v>
       </c>
       <c r="T33">
-        <v>0.000327455611517877</v>
+        <v>0.001023105795772596</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H34">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I34">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J34">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N34">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O34">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P34">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q34">
-        <v>2.423315784495778</v>
+        <v>5.686120771669334</v>
       </c>
       <c r="R34">
-        <v>21.809842060462</v>
+        <v>51.17508694502401</v>
       </c>
       <c r="S34">
-        <v>0.0001043558753374613</v>
+        <v>0.0003548056622571869</v>
       </c>
       <c r="T34">
-        <v>0.0001548461241885842</v>
+        <v>0.0005604447440474678</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H35">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I35">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J35">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N35">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O35">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P35">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q35">
-        <v>0.8146792536276668</v>
+        <v>2.434985800072</v>
       </c>
       <c r="R35">
-        <v>4.888075521766001</v>
+        <v>14.609914800432</v>
       </c>
       <c r="S35">
-        <v>3.508274372474091E-05</v>
+        <v>0.0001519395707678144</v>
       </c>
       <c r="T35">
-        <v>3.470449475004235E-05</v>
+        <v>0.0001600007044380721</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H36">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I36">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J36">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N36">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O36">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P36">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q36">
-        <v>1.878416606222889</v>
+        <v>3.870012764234667</v>
       </c>
       <c r="R36">
-        <v>16.905749456006</v>
+        <v>34.83011487811201</v>
       </c>
       <c r="S36">
-        <v>8.089074087865933E-05</v>
+        <v>0.0002414831652186191</v>
       </c>
       <c r="T36">
-        <v>0.0001200279109086928</v>
+        <v>0.0003814425335315515</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H37">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I37">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J37">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N37">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O37">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P37">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q37">
-        <v>1.783395317173555</v>
+        <v>4.285323056464001</v>
       </c>
       <c r="R37">
-        <v>16.050557854562</v>
+        <v>38.56790750817601</v>
       </c>
       <c r="S37">
-        <v>7.679881449503269E-05</v>
+        <v>0.0002673979231342154</v>
       </c>
       <c r="T37">
-        <v>0.0001139561977548275</v>
+        <v>0.0004223770264442679</v>
       </c>
     </row>
   </sheetData>
